--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value3644.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value3644.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.558703984300617</v>
+        <v>0.48080775141716</v>
       </c>
       <c r="B1">
-        <v>1.710479420507218</v>
+        <v>1.714520215988159</v>
       </c>
       <c r="C1">
-        <v>1.759135618050166</v>
+        <v>2.278101921081543</v>
       </c>
       <c r="D1">
-        <v>2.177054363758909</v>
+        <v>1.959650278091431</v>
       </c>
       <c r="E1">
-        <v>3.235735373220348</v>
+        <v>0.9656597375869751</v>
       </c>
     </row>
   </sheetData>
